--- a/Experiments/Measurements/Single Banner Vertical/S path/Antenna_3/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/S path/Antenna_3/Transformed_Coordinates.xlsx
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>42.18938240460784</v>
+        <v>42.18938240460806</v>
       </c>
       <c r="H2" t="n">
-        <v>184.9718429086473</v>
+        <v>184.9718429086474</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>78.75021808218378</v>
+        <v>78.75021808218399</v>
       </c>
       <c r="H3" t="n">
         <v>167.2975630435157</v>
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>51.86702283088697</v>
+        <v>51.86702283088715</v>
       </c>
       <c r="H4" t="n">
-        <v>165.2064016033337</v>
+        <v>165.2064016033338</v>
       </c>
     </row>
     <row r="5">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-24.14033050500462</v>
+        <v>-24.14033050500461</v>
       </c>
       <c r="H5" t="n">
-        <v>196.3990553123398</v>
+        <v>196.3990553123397</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>45.15677413047737</v>
+        <v>45.15677413047739</v>
       </c>
       <c r="H6" t="n">
-        <v>177.7672496085719</v>
+        <v>177.7672496085718</v>
       </c>
     </row>
     <row r="7">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>135.4849636954241</v>
+        <v>135.4849636954243</v>
       </c>
       <c r="H7" t="n">
         <v>129.0546915458313</v>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>135.3716169861887</v>
+        <v>135.3716169861889</v>
       </c>
       <c r="H8" t="n">
         <v>111.6225457519126</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>114.9794259064054</v>
+        <v>114.9794259064056</v>
       </c>
       <c r="H9" t="n">
-        <v>110.8426288216739</v>
+        <v>110.842628821674</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>95.37604474143858</v>
+        <v>95.37604474143876</v>
       </c>
       <c r="H10" t="n">
-        <v>109.9737971684522</v>
+        <v>109.9737971684523</v>
       </c>
     </row>
     <row r="11">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>75.11245780163867</v>
+        <v>75.11245780163874</v>
       </c>
       <c r="H11" t="n">
         <v>109.1649230048587</v>
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>16.67577126358774</v>
+        <v>16.67577126358784</v>
       </c>
       <c r="H12" t="n">
         <v>119.7400294551711</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>106.0292742475339</v>
+        <v>106.0292742475341</v>
       </c>
       <c r="H13" t="n">
         <v>110.5676013042729</v>
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>135.5249490436159</v>
+        <v>135.5249490436161</v>
       </c>
       <c r="H14" t="n">
-        <v>88.36809751536499</v>
+        <v>88.36809751536504</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>115.2720752280126</v>
+        <v>115.2720752280128</v>
       </c>
       <c r="H15" t="n">
-        <v>87.45740671385539</v>
+        <v>87.45740671385552</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>95.41748153512361</v>
+        <v>95.4174815351238</v>
       </c>
       <c r="H16" t="n">
-        <v>86.2337571832269</v>
+        <v>86.23375718322701</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>75.30688393915989</v>
+        <v>75.30688393915996</v>
       </c>
       <c r="H17" t="n">
-        <v>85.25440018877276</v>
+        <v>85.25440018877266</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>73.74332818781947</v>
+        <v>73.74332818781954</v>
       </c>
       <c r="H18" t="n">
-        <v>84.03847438794878</v>
+        <v>84.0384743879487</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>135.2215847983909</v>
+        <v>135.2215847983911</v>
       </c>
       <c r="H19" t="n">
-        <v>86.00544109925602</v>
+        <v>86.00544109925606</v>
       </c>
     </row>
     <row r="20">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>135.604207765353</v>
+        <v>135.6042077653533</v>
       </c>
       <c r="H20" t="n">
-        <v>90.42479148978624</v>
+        <v>90.42479148978629</v>
       </c>
     </row>
     <row r="21">
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>115.4925876529504</v>
+        <v>115.4925876529506</v>
       </c>
       <c r="H21" t="n">
-        <v>89.41515275549889</v>
+        <v>89.41515275549904</v>
       </c>
     </row>
     <row r="22">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>95.2237554624766</v>
+        <v>95.22375546247679</v>
       </c>
       <c r="H22" t="n">
-        <v>88.66629527010109</v>
+        <v>88.66629527010122</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>75.44711942800298</v>
+        <v>75.44711942800305</v>
       </c>
       <c r="H23" t="n">
-        <v>87.41094874300384</v>
+        <v>87.41094874300376</v>
       </c>
     </row>
     <row r="24">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80.60658088307858</v>
+        <v>80.60658088307825</v>
       </c>
       <c r="H24" t="n">
-        <v>92.84968241115801</v>
+        <v>92.84968241115772</v>
       </c>
     </row>
     <row r="25">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>48.70740754838243</v>
+        <v>48.70740754838251</v>
       </c>
       <c r="H25" t="n">
-        <v>168.2917900269527</v>
+        <v>168.2917900269529</v>
       </c>
     </row>
     <row r="26">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>125.1307766173325</v>
+        <v>125.1307766173327</v>
       </c>
       <c r="H26" t="n">
-        <v>124.9156755248396</v>
+        <v>124.9156755248397</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>105.5333889071603</v>
+        <v>105.5333889071605</v>
       </c>
       <c r="H29" t="n">
-        <v>101.2309175160499</v>
+        <v>101.2309175160501</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>105.1026842491663</v>
+        <v>105.1026842491665</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89414555664415</v>
+        <v>89.89414555664428</v>
       </c>
     </row>
     <row r="31">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>125.6019991099421</v>
+        <v>125.6019991099423</v>
       </c>
       <c r="H31" t="n">
-        <v>140.1374216982026</v>
+        <v>140.1374216982027</v>
       </c>
     </row>
     <row r="32">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>90.29514570274058</v>
+        <v>90.29514570274021</v>
       </c>
       <c r="H33" t="n">
-        <v>123.7163339265835</v>
+        <v>123.7163339265833</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>90.25023656273333</v>
+        <v>90.25023656273297</v>
       </c>
       <c r="H34" t="n">
-        <v>91.01966344448597</v>
+        <v>91.0196634444857</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>125.0137051259327</v>
+        <v>125.0137051259328</v>
       </c>
       <c r="H36" t="n">
-        <v>90.92870382202629</v>
+        <v>90.92870382202642</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>90.17875995150823</v>
+        <v>90.17875995150787</v>
       </c>
       <c r="H37" t="n">
-        <v>100.6423066080717</v>
+        <v>100.6423066080715</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>105.2035795477912</v>
+        <v>105.2035795477914</v>
       </c>
       <c r="H39" t="n">
-        <v>135.6754177346387</v>
+        <v>135.6754177346388</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>100.1258830755835</v>
+        <v>100.1258830755834</v>
       </c>
       <c r="H40" t="n">
-        <v>84.06789070486107</v>
+        <v>84.06789070486084</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>42.12252610116926</v>
+        <v>42.12252610116934</v>
       </c>
       <c r="H42" t="n">
-        <v>154.5529241275706</v>
+        <v>154.5529241275708</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>90.27052050474769</v>
+        <v>90.27052050474732</v>
       </c>
       <c r="H44" t="n">
-        <v>85.41349219913954</v>
+        <v>85.41349219913928</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>105.1929508936926</v>
+        <v>105.1929508936928</v>
       </c>
       <c r="H47" t="n">
-        <v>84.96711856610352</v>
+        <v>84.96711856610365</v>
       </c>
     </row>
     <row r="48">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>100.4668945895125</v>
+        <v>100.4668945895126</v>
       </c>
       <c r="H49" t="n">
-        <v>128.8495751468888</v>
+        <v>128.849575146889</v>
       </c>
     </row>
     <row r="50">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>87.86778024292471</v>
+        <v>87.86778024292435</v>
       </c>
       <c r="H50" t="n">
-        <v>94.34998839250144</v>
+        <v>94.34998839250117</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>92.76991190082244</v>
+        <v>92.76991190082263</v>
       </c>
       <c r="H51" t="n">
-        <v>107.9888206571339</v>
+        <v>107.988820657134</v>
       </c>
     </row>
   </sheetData>
